--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf4.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Apêndice Estratégico de Mobilização Militar (AEMM) é elaborado pela Subchefia de Mobilização (SUBMOB) e consolida os Planos de Mobilização das Forças referentes ao PEECFA.</t>
+          <t>A determinação da estrutura a ser adotada pelo Comando Operacional é de competência de seu Comandante, que possui total flexibilidade para adaptá-la a cada situação.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O Apêndice Estratégico de Mobilização Militar (AEMM) é elaborado diretamente pelos Comandos das Forças Singulares, sem consolidação pela Subchefia de Mobilização.</t>
+          <t>A estrutura do Comando Operacional é rígida e predefinida pelo Ministério da Defesa, não permitindo flexibilidade de organização por parte do Comandante Operacional.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.1.1**, o AEMM é elaborado pela SUBMOB e consolida os Planos de Mobilização Marítima, Terrestre e Aeroespacial.</t>
+          <t>Conforme o **item 4.1.2**, a determinação da estrutura é competência do Comandante, que tem total flexibilidade de organização.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O AEMM lista as carências logísticas das Forças Singulares, ou seja, as necessidades não atendidas pelas respectivas logísticas.</t>
+          <t>Uma Força-Tarefa é organizada com comando próprio para cumprimento de missão específica, com objetivos e duração limitados no tempo.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O AEMM lista exclusivamente os superávits logísticos das Forças Singulares, ignorando as necessidades não atendidas.</t>
+          <t>Uma Força-Tarefa é uma estrutura permanente de comando, mantida indefinidamente mesmo após o cumprimento de sua missão específica.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>De acordo com o **item 4.1.2**, o AEMM lista as carências logísticas das FS e especifica as ações de Mobilização para atendê-las.</t>
+          <t>Segundo o **item 4.1.3.3**, a Força-Tarefa é organizada para cumprimento de missão específica, com objetivos e duração limitados no tempo.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A finalidade do AEMM é especificar ações complementares à Logística nas fases do Preparo e da Execução da Mobilização e Desmobilização.</t>
+          <t>A organização por Forças Componentes Singulares permite que cada comandante conheça profundamente os meios subordinados nos aspectos operacionais e logísticos.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A finalidade do AEMM restringe-se apenas à fase de Execução da Mobilização, não abrangendo o Preparo ou a Desmobilização.</t>
+          <t>A organização por Forças Componentes Singulares impede que o comandante conheça profundamente os meios subordinados, dificultando a gestão logística.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Segundo o **item 4.3.1.1**, a finalidade é especificar ações complementares à Logística nas fases do Preparo e da Execução da Mobilização e da Desmobilização.</t>
+          <t>De acordo com o **item 4.1.4**, a organização por Forças Singulares permite que cada comandante conheça profundamente os meios subordinados.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No corpo do plano AEMM, no item referente às carências, far-se-á referência ao adendo onde estarão listadas as carências logísticas da Força Singular.</t>
+          <t>A organização por Forças Conjuntas Componentes deve ser priorizada sempre que possível, pois aumenta a sinergia de emprego e a flexibilidade.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No corpo do plano AEMM, todas as carências logísticas devem ser descritas detalhadamente no texto principal, sendo vedado o uso de adendos.</t>
+          <t>A organização por Forças Conjuntas Componentes deve ser evitada, pois reduz a flexibilidade e dificulta a coordenação das três dimensões da guerra.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.3.1**, neste item se fará referência ao adendo onde estarão listadas as carências logísticas da FS.</t>
+          <t>Conforme o **item 4.1.5**, a organização por Forças Conjuntas proporciona maior flexibilidade e sinergia, devendo ser priorizada sempre que possível.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Na fase de Preparo, deve-se propor a colocação de encomendas educativas nas empresas da Base Industrial de Defesa (BID).</t>
+          <t>Para que uma força seja considerada Componente, a natureza das suas atividades deve ser de cunho operativo e não apenas de assessoria ou administrativo.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Na fase de Preparo, é proibida a colocação de encomendas educativas na Base Industrial de Defesa para evitar distorções de mercado.</t>
+          <t>Qualquer força pode ser considerada Componente, mesmo que suas atividades sejam exclusivamente de assessoria administrativa e burocrática.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nos termos do **item 4.3.4.1, alínea 'c'**, deve-se propor a colocação de encomendas educativas nas empresas da BID.</t>
+          <t>Segundo o **item 4.1.7, alínea 'd'**, uma condição é que a natureza das atividades seja de cunho operativo e não administrativo/assessoria.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O MD e as FS devem cadastrar e atualizar seus sistemas informatizados de gerenciamento de recursos e integrá-los aos sistemas do Ministério da Defesa.</t>
+          <t>Cada meio adjudicado deve ser empregado de acordo com o seu tipo de preparo, englobando aspectos doutrinários, de adestramento e de equipamento.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Os sistemas informatizados das Forças Singulares devem operar de forma isolada, sendo vedada a integração com os sistemas do Ministério da Defesa.</t>
+          <t>Os meios adjudicados podem ser empregados livremente em qualquer função, independentemente de seu preparo, doutrina ou equipamento original.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.4.1, alínea 'e'**, deve haver a atualização dos sistemas e a integração desses com os sistemas gerenciais utilizados no MD.</t>
+          <t>O texto do **item 4.1.8** estabelece que cada meio deve ser empregado de acordo com o seu tipo de preparo para resguardar a simplicidade.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O Banco de Talentos (BT) visa cadastrar pessoas, reservistas ou não, para viabilizar convocações abrigadas pela Lei do Serviço Militar ou por Decreto de Mobilização.</t>
+          <t>Os Comandos Operacionais Conjuntos, quando ativados, ficarão subordinados ao Comandante Supremo, por intermédio do Ministro da Defesa.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Banco de Talentos (BT) destina-se exclusivamente ao cadastro de militares da ativa, não abrangendo reservistas ou civis.</t>
+          <t>Os Comandos Operacionais Conjuntos, ao serem ativados, reportam-se diretamente aos Comandantes das Forças Singulares, sem subordinação ao Ministro da Defesa.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>De acordo com o **item 4.3.4.1, alínea 'f'**, o BT serve para cadastrar pessoas reservistas ou não, possuidoras de qualificações específicas.</t>
+          <t>Conforme o **item 4.2.2**, os Comandos Operacionais ficam subordinados ao CS, por intermédio do Ministro da Defesa.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deve-se cadastrar no Sistema APOLO as indústrias e empresas de interesse da Mobilização que ainda não constem dele e sejam relevantes para o planejamento.</t>
+          <t>A liberdade de ação é a capacidade de agir de maneira descentralizada e específica, mantendo as características de cada Força Componente.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>As indústrias que não constam no Sistema APOLO devem ser descartadas do planejamento de Mobilização, sendo vedado novos cadastros.</t>
+          <t>A liberdade de ação implica na centralização total das decisões no nível estratégico, eliminando a capacidade de ação descentralizada das forças componentes.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.4.1, alínea 'h'**, deve-se cadastrar as indústrias e empresas de interesse que ainda não constem do Sistema APOLO.</t>
+          <t>Segundo o **item 4.2.3, alínea 'b'**, a liberdade de ação é a capacidade de agir de maneira descentralizada e específica.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 47</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Na fase de Preparo, pode-se propor a adaptação ou conversão de indústrias e empresas visando ao atendimento do esforço de mobilização.</t>
+          <t>A coordenação visa ao entrosamento de diferentes setores, promovendo a sinergia das ações e evitando a duplicidade e interferência mútua.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A conversão de indústrias civis para o esforço de mobilização é estritamente proibida na fase de Preparo.</t>
+          <t>A coordenação tem como objetivo principal estimular a competição entre os setores, permitindo duplicidade de ações para testar a eficiência das forças.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Segundo o **item 4.3.4.1, alínea 'j'**, deve-se propor adaptações, aprimoramento técnico e/ou conversão de indústrias e empresas.</t>
+          <t>De acordo com o **item 4.2.3, alínea 'a'**, a coordenação visa ao entrosamento para promover sinergia e evitar duplicidade.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 48</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A partir da decretação da Mobilização Nacional, as ações planejadas serão empreendidas de modo acelerado e compulsório.</t>
+          <t>O Comandante Operacional, a princípio, não deverá comandar diretamente meios ou forças militares, salvo em situações temporárias e excepcionais.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A partir da decretação da Mobilização Nacional, as ações devem seguir o ritmo normal de paz, evitando qualquer compulsoriedade.</t>
+          <t>O Comandante Operacional deve, obrigatoriamente, exercer o comando direto de todos os meios táticos e forças militares subordinadas durante toda a campanha.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O texto do **item 4.3.5** estabelece que, a partir da decretação, as ações serão empreendidas de modo acelerado e compulsório.</t>
+          <t>Conforme o **item 4.3.4**, a princípio, ele não deverá comandar diretamente meios, salvo em situações temporárias e excepcionais.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Na fase de Execução da Mobilização, pode-se propor eventual intervenção em empresas que possuam capacidade de atender as carências constantes da Lista de Carências.</t>
+          <t>Cabe ao Comandante Operacional estabelecer e disseminar as Regras de Engajamento no Nível Operacional.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Na fase de Execução da Mobilização, a intervenção em empresas privadas é proibida sob qualquer circunstância.</t>
+          <t>A definição das Regras de Engajamento no Nível Operacional é de responsabilidade exclusiva dos comandantes táticos das unidades no terreno.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.5, alínea 'd'**, pode-se propor eventual intervenção em empresas que possuam capacidade de atender as carências.</t>
+          <t>Segundo o **item 4.3.5, alínea 'd'**, é atribuição do Comandante Operacional estabelecer e disseminar as Regras de Engajamento.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>As ações de Desmobilização serão previstas para a retomada da normalidade quando cessarem os motivos que determinaram a Mobilização.</t>
+          <t>O Comandante Operacional exerce o comando operacional sobre a logística, delegando a um Comandante Logístico a coordenação e a execução.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>As ações de Desmobilização devem ser planejadas apenas após a assinatura do tratado de paz, e não durante a mobilização.</t>
+          <t>O Comandante Operacional deve executar pessoalmente todas as tarefas logísticas, sendo vedada a delegação dessas funções a um Comandante Logístico.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>De acordo com o **item 4.3.6**, as ações serão previstas para a retomada da normalidade quando cessarem os motivos que determinaram a Mobilização.</t>
+          <t>O texto do **item 4.3.6** afirma que compete exercer o comando operacional sobre a logística, delegando a coordenação e execução a um C Log.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A Execução da Desmobilização deve ser posta em prática de forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+          <t>O Comandante de Força Componente deve planejar priorizando as tarefas logísticas conjuntas, em coordenação com o Comandante Logístico Componente.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Desmobilização deve ser executada de forma imediata e total assim que cessarem os combates, para economizar recursos.</t>
+          <t>O Comandante de Força Componente deve planejar a logística focando exclusivamente em suas necessidades singulares, ignorando as tarefas conjuntas.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.7**, as atividades serão postas em prática de forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento.</t>
+          <t>Conforme o **item 4.4.1, alínea 'd'**, deve-se planejar de forma a priorizar as tarefas logísticas conjuntas em coordenação com o C Log Cte.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Durante a Desmobilização, deve-se propor o cancelamento oportuno dos contratos de produção de artigos destinados às necessidades de mobilização.</t>
+          <t>Compete ao Comandante Logístico Componente (C Log Cte) gerenciar todo o fluxo de apoio logístico no TO ou A Op, priorizando a logística conjunta.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Durante a Desmobilização, todos os contratos de produção de guerra devem ser mantidos integralmente até seu termo final.</t>
+          <t>Compete ao Comandante Logístico Componente (C Log Cte) gerenciar apenas a segurança da retaguarda, sem interferência no fluxo logístico do TO.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Segundo o **item 4.3.7, alínea 'h'**, deve-se propor o cancelamento oportuno dos contratos de produção destinados à mobilização.</t>
+          <t>Segundo o **item 4.5.1, alínea 'b'**, compete ao C Log Cte gerenciar todo o fluxo de apoio logístico, priorizando a logística conjunta.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,138 +954,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A Célula de Coordenação de Mobilização (CeCM) deve coordenar com as Forças Singulares as ações inerentes às atividades de Mobilização/Desmobilização.</t>
+          <t>O C Log Cte deve coordenar com o Centro de Coordenação de Logística e Mobilização (CCLM) do EMCFA todo o fluxo logístico entre a Zona do Interior e o TO.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>As Forças Singulares devem conduzir a Mobilização de forma autônoma, sem coordenação da Célula de Coordenação de Mobilização (CeCM).</t>
+          <t>O C Log Cte não deve se comunicar com o EMCFA, devendo resolver questões de fluxo logístico exclusivamente com os governos estaduais locais.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nos termos do **item 4.3.8.2**, a CeCM do MD deverá coordenar com as FS as ações inerentes às atividades de Mobilização/Desmobilização.</t>
+          <t>De acordo com o **item 4.5.1, alínea 'c'**, deve-se coordenar com o CCLM do EMCFA todo o fluxo logístico entre a ZI e o TO/A Op.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pág 36</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Demandas que podem ser atendidas no prazo de até 3 anos não serão consideradas carências de mobilização, compondo um planejamento logístico.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Qualquer demanda identificada, independentemente do prazo de atendimento, deve ser considerada imediatamente como carência de mobilização.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Conforme o **item 4.3.8.3**, demandas atendíveis em até 3 anos não serão consideradas carências e comporão um planejamento logístico.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pág 36</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Deverá constar no corpo do AEMM o custo estimado total das carências.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O custo estimado das carências não deve constar no AEMM, devendo ser apresentado apenas em documento orçamentário separado.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>De acordo com o **item 4.3.8.5**, deverá constar no corpo do AEMM o custo estimado total das carências.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pág 36</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>O AEMM, após assinado pelo Subchefe de Mobilização, deve ser entregue à Chefia de Operações Conjuntas para ser anexado ao PEECFA.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>O AEMM deve ser entregue diretamente ao Presidente da República, sem passar pela Chefia de Operações Conjuntas ou integrar o PEECFA.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Segundo o **item 4.3.11**, após assinado, o AEMM será entregue à Chefia de Operações Conjuntas, para ser anexado ao PEECFA.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
